--- a/Documenti/UC Gestione del Profilo Personale.xlsx
+++ b/Documenti/UC Gestione del Profilo Personale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">IDENTIFICATORE </t>
   </si>
   <si>
-    <t xml:space="preserve">ID:7</t>
+    <t xml:space="preserve">ID:3</t>
   </si>
   <si>
     <t xml:space="preserve">BREVE DESCRIZIONE</t>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">ATTORI SECONDARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nessuno</t>
   </si>
   <si>
     <t xml:space="preserve">PRECONDIZIONI</t>
@@ -181,13 +184,13 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -228,39 +231,39 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
